--- a/Pandas_Data_Analytics/Part02/df_sample.xlsx
+++ b/Pandas_Data_Analytics/Part02/df_sample.xlsx
@@ -451,7 +451,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>c++</t>
+          <t>C++</t>
         </is>
       </c>
     </row>
